--- a/cities/Al Khobar/Al Khobar.xlsx
+++ b/cities/Al Khobar/Al Khobar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al khobar</t>
+          <t>Al Khobar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AL KHOBAR</t>
+          <t>Al Khobar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AL KHOBAR</t>
+          <t>Al Khobar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AL Khobar</t>
+          <t>Al Khobar</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -992,6 +992,1651 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>shafiy@sgn.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>108</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Abdel hafeez Al bayyari</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>l-jammaz distribution</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Area Sales Manager</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>abayyari@al-jammaz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jaweed Masood</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ebttikar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Manager Oil &amp; Gas Sector</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>jmfaridi@ebttikar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rephy Sulaiman</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>natcom</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Project manager</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>rephy.sulaiman@natcom.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>110</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mohammad Abid Hanif</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rawabi Holding Company</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Manager Information Technology</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>abid@rawabiss.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>132</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Shafi yusuff</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Saudi German Co</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>IT manager</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>shafiy@sgn.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>382</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mulham AlKazemi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Zohoor Alreef</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>IT Director</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mulham@zohooralreef.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mohammed Shuaib Fyzullah</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CompuSoft Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sales Consultant</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>shuaib@compusoftsa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ligutan Ulpiano</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SPSNet</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Project Engineer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ulpiano.ligutan@sps.net.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sridhar Gopal</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Saudi United Cooperative Insurance</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sridhar@walaa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mohammad IQbal</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Saad Group</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Network &amp; Systems Manager</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>miqbal@saad.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Omer Khan Mohammad</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>United Group</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Group IT Manager</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>okhan@unitedgroupcom.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hashim Al-Attas</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Axiom Telecom</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Country IT Manager</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>halattas.ksa@axiomtelecom.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>69</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mazen Arnous</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ebttikar</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Account Manager</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>marnous@ebttikar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>71</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DIAA AYOUB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NAHIL INTEGRATED SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BUSINESS DEVELOPMENT MANAGER</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>diaa@nahil.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>91</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Asif Ahmed</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Binzagr</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sr. System Administrator</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>asif@binzagr.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>115</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cajetan Fernandes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Abdullah H. Al-Shuwayer</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Business Consultant</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>cajey@awalnet.net.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>133</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Naeem Sarwar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pan Gulf holding</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>naeemsarwar@pghco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>135</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>George Doujaiji</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nesma &amp; Partners</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Database Administrator</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>george.doujaiji@nesma.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ronaldo Acosta</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Al-Othman Group Holding</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Exec. IT Tech. Support Engr.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>acosta@al-othman.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>141</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ali Arrabi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Inma Trading</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>IT Infrastructure Manager</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ali.arrabi@inmatrading.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Abdu Albur</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MOE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>albur1@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>117</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yasser Rashad</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SAAD GROUP</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Systems Manager</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>rashadym@saad.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>139</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ahmed AbdelSalam</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IXIR TEC</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ahmedsalam@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>140</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ahmed AbdelSalam</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>IXIR TEC</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>asalam@ixirtech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yasser Bassune</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AwalNet</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Eastern Region Manager</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ybassune@awalnet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Willie Pagadura</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AL-Rawda</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>I.T Sales Coordinator</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>willie.pagadura@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ricky Duran</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SPS-Kodak</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P.O Box 268 31962</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ricky.duran@samirgroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Riyadh Dakheel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AXA Corporate Insurance SA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>riyadh.dakheel@axa-gulf.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Khalid Al-Shelleh</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Estarta Solutions</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Business Development Manager</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>khalids@estartasolutions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ahmed El Sayed</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sara Group</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>IT Manager Network &amp; Security Division</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>eahmed@sara.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Raheemuddin Syed</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Astoon Hospital</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DBA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>astoonho@astoonhospitals.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Moh'd Ammar Hinno</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Saad group</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Operation Manager</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>mhinno@saad.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>78</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mohammed Fasiuddin Naser</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Saad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>web server Administrator</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>fnaserf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>85</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>waleed said</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>nahil computer company</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>project manager</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>waleed@nahil.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>87</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mohammed Kaware</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RMZ Business Services</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Training Center Manager</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>mkaware@rmz-me.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>jubrael saliata</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>olayan group</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>project manager</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>jubrael@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>93</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Abdullah Rimawi</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Olayan Group</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Operations Manager</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>a.rimawi@olayangroup.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>106</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Majed Saeed</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Arabic Computer Systems (ACS)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Account Sales Manager</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>majed@acs.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sahal Allam</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Manager User Supoprt Div.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sallam@se.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>113</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>deiaa abdullah</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>nesma</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>account manager</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>deiaa@nesma.net.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>120</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mustafa Arrabi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Saudi Readymix Concrete Co. Ltd</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>mustafa.arrabi@saudireadymix.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mohammed Abdulraheem</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FSSI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>a.raheem@fssi.com.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>128</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Musab Bader</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Baker Hughes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>System Specialist and Trainer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>musab.bader@bakerhughes.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>131</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ahmad Al-Mohamed</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Microsoft Arabia</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ahmadalm@microsoft.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Baha AL-Ramahi</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Gulf Consolidated Contracting GCC</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>G.M IT (MIS)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>bramahi@gccksa.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>88</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ragab Sayed</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ebttikar</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sector sales manager(goverment &amp;enterprise)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>rsayed@ebttikar.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>441</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mohammad Mahmoud</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rawahel Al-</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Al Khobar</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>mmahmoud@rawahel.com.sa</t>
         </is>
       </c>
     </row>
